--- a/biology/Zoologie/Busard/Busard.xlsx
+++ b/biology/Zoologie/Busard/Busard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Circus
 Circus est un genre d'oiseaux de la famille des Accipitridés. Les espèces de ce genre ont pour nom normalisé busard. 
-Tout busard se reconnaît par ses longues ailes, une longue queue étroite, un vol lent et bas au-dessus des prairies, le vol ramé alternant avec le vol plané caractérisé par les ailes dressées en V au-dessus du corps tenues au-dessus de l'horizontale, ce qui permet de le distinguer avec les buses à la queue courte et arrondie, au vol lourd avec les ailes tenues droites quand elles planent[1].
-Le disque facial de ce rapace diurne, qui rappelle celui des rapaces nocturnes, forme une sorte de parabole qui canalise les sons vers le conduit auditif externe[2].
+Tout busard se reconnaît par ses longues ailes, une longue queue étroite, un vol lent et bas au-dessus des prairies, le vol ramé alternant avec le vol plané caractérisé par les ailes dressées en V au-dessus du corps tenues au-dessus de l'horizontale, ce qui permet de le distinguer avec les buses à la queue courte et arrondie, au vol lourd avec les ailes tenues droites quand elles planent.
+Le disque facial de ce rapace diurne, qui rappelle celui des rapaces nocturnes, forme une sorte de parabole qui canalise les sons vers le conduit auditif externe.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Circus, introduit en 1799 par le naturaliste Lacépède, fait référence au vol circulaire (grec kirkos, latin circus, « cercle ») de cet oiseau de proie mentionné par plusieurs antiques, et plus tard identifié comme celui du Busard Saint-Martin[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Circus, introduit en 1799 par le naturaliste Lacépède, fait référence au vol circulaire (grec kirkos, latin circus, « cercle ») de cet oiseau de proie mentionné par plusieurs antiques, et plus tard identifié comme celui du Busard Saint-Martin.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Circus aeruginosus – Busard des roseaux
